--- a/EducationPlan_Biro_Tajthy.xlsx
+++ b/EducationPlan_Biro_Tajthy.xlsx
@@ -7144,8 +7144,8 @@
   <dimension ref="A1:L1789"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A725" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K726" sqref="K726"/>
+      <pane ySplit="3" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7179,7 +7179,7 @@
       </c>
       <c r="E1" s="11" t="str">
         <f ca="1">"Elapsed time: " &amp; ROUND((TODAY() - $B$1)/($D$1-$B$1) * 100,2) &amp; "%"</f>
-        <v>Elapsed time: 84.25%</v>
+        <v>Elapsed time: 91.94%</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -9667,6 +9667,8 @@
       <c r="I147">
         <v>189</v>
       </c>
+      <c r="J147" s="18"/>
+      <c r="K147" s="17"/>
       <c r="L147" s="20"/>
     </row>
     <row r="148" spans="3:12" x14ac:dyDescent="0.25">
@@ -9682,6 +9684,8 @@
       <c r="I148">
         <v>190</v>
       </c>
+      <c r="J148" s="18"/>
+      <c r="K148" s="17"/>
       <c r="L148" s="20"/>
     </row>
     <row r="149" spans="3:12" x14ac:dyDescent="0.25">
@@ -9697,6 +9701,8 @@
       <c r="I149">
         <v>191</v>
       </c>
+      <c r="J149" s="18"/>
+      <c r="K149" s="17"/>
       <c r="L149" s="20"/>
     </row>
     <row r="150" spans="3:12" x14ac:dyDescent="0.25">
@@ -9712,6 +9718,8 @@
       <c r="I150">
         <v>192</v>
       </c>
+      <c r="J150" s="18"/>
+      <c r="K150" s="17"/>
       <c r="L150" s="20"/>
     </row>
     <row r="151" spans="3:12" x14ac:dyDescent="0.25">
@@ -9727,6 +9735,8 @@
       <c r="I151">
         <v>193</v>
       </c>
+      <c r="J151" s="18"/>
+      <c r="K151" s="17"/>
       <c r="L151" s="20"/>
     </row>
     <row r="152" spans="3:12" x14ac:dyDescent="0.25">
@@ -9742,6 +9752,8 @@
       <c r="I152">
         <v>194</v>
       </c>
+      <c r="J152" s="18"/>
+      <c r="K152" s="17"/>
       <c r="L152" s="20"/>
     </row>
     <row r="153" spans="3:12" x14ac:dyDescent="0.25">
@@ -9757,6 +9769,8 @@
       <c r="I153">
         <v>195</v>
       </c>
+      <c r="J153" s="18"/>
+      <c r="K153" s="17"/>
       <c r="L153" s="20"/>
     </row>
     <row r="154" spans="3:12" x14ac:dyDescent="0.25">
@@ -9772,6 +9786,8 @@
       <c r="I154">
         <v>196</v>
       </c>
+      <c r="J154" s="18"/>
+      <c r="K154" s="17"/>
       <c r="L154" s="20"/>
     </row>
     <row r="155" spans="3:12" x14ac:dyDescent="0.25">
@@ -9787,6 +9803,8 @@
       <c r="I155">
         <v>197</v>
       </c>
+      <c r="J155" s="18"/>
+      <c r="K155" s="17"/>
       <c r="L155" s="20"/>
     </row>
     <row r="156" spans="3:12" x14ac:dyDescent="0.25">
@@ -9814,6 +9832,7 @@
       <c r="I157">
         <v>199</v>
       </c>
+      <c r="K157" s="17"/>
       <c r="L157" s="20"/>
     </row>
     <row r="158" spans="3:12" x14ac:dyDescent="0.25">
@@ -9829,6 +9848,7 @@
       <c r="I158">
         <v>200</v>
       </c>
+      <c r="K158" s="17"/>
       <c r="L158" s="20"/>
     </row>
     <row r="159" spans="3:12" x14ac:dyDescent="0.25">
@@ -9844,6 +9864,7 @@
       <c r="I159">
         <v>201</v>
       </c>
+      <c r="K159" s="17"/>
       <c r="L159" s="20"/>
     </row>
     <row r="160" spans="3:12" x14ac:dyDescent="0.25">
@@ -9859,6 +9880,7 @@
       <c r="I160">
         <v>202</v>
       </c>
+      <c r="K160" s="17"/>
       <c r="L160" s="20"/>
     </row>
     <row r="161" spans="3:12" x14ac:dyDescent="0.25">
@@ -9874,6 +9896,7 @@
       <c r="I161">
         <v>203</v>
       </c>
+      <c r="K161" s="17"/>
       <c r="L161" s="20"/>
     </row>
     <row r="162" spans="3:12" x14ac:dyDescent="0.25">
@@ -9889,6 +9912,7 @@
       <c r="I162">
         <v>204</v>
       </c>
+      <c r="K162" s="17"/>
       <c r="L162" s="20"/>
     </row>
     <row r="163" spans="3:12" x14ac:dyDescent="0.25">
@@ -9904,6 +9928,7 @@
       <c r="I163">
         <v>205</v>
       </c>
+      <c r="K163" s="17"/>
       <c r="L163" s="20"/>
     </row>
     <row r="164" spans="3:12" x14ac:dyDescent="0.25">
@@ -9919,6 +9944,7 @@
       <c r="I164">
         <v>206</v>
       </c>
+      <c r="K164" s="17"/>
       <c r="L164" s="20"/>
     </row>
     <row r="165" spans="3:12" x14ac:dyDescent="0.25">
@@ -9934,6 +9960,7 @@
       <c r="I165">
         <v>207</v>
       </c>
+      <c r="K165" s="17"/>
       <c r="L165" s="20"/>
     </row>
     <row r="166" spans="3:12" x14ac:dyDescent="0.25">
@@ -9949,6 +9976,7 @@
       <c r="I166">
         <v>208</v>
       </c>
+      <c r="K166" s="17"/>
       <c r="L166" s="20"/>
     </row>
     <row r="167" spans="3:12" x14ac:dyDescent="0.25">
@@ -9964,6 +9992,7 @@
       <c r="I167">
         <v>209</v>
       </c>
+      <c r="K167" s="17"/>
       <c r="L167" s="20"/>
     </row>
     <row r="168" spans="3:12" x14ac:dyDescent="0.25">
@@ -9979,6 +10008,7 @@
       <c r="I168">
         <v>210</v>
       </c>
+      <c r="K168" s="17"/>
       <c r="L168" s="20"/>
     </row>
     <row r="169" spans="3:12" x14ac:dyDescent="0.25">
@@ -10213,6 +10243,8 @@
       <c r="I184">
         <v>226</v>
       </c>
+      <c r="J184" s="18"/>
+      <c r="K184" s="17"/>
       <c r="L184" s="20"/>
     </row>
     <row r="185" spans="2:12" x14ac:dyDescent="0.25">
@@ -10231,6 +10263,8 @@
       <c r="I185">
         <v>227</v>
       </c>
+      <c r="J185" s="18"/>
+      <c r="K185" s="17"/>
       <c r="L185" s="20"/>
     </row>
     <row r="186" spans="2:12" x14ac:dyDescent="0.25">
@@ -10249,6 +10283,8 @@
       <c r="I186">
         <v>228</v>
       </c>
+      <c r="J186" s="18"/>
+      <c r="K186" s="17"/>
       <c r="L186" s="20"/>
     </row>
     <row r="187" spans="2:12" x14ac:dyDescent="0.25">
@@ -10267,6 +10303,8 @@
       <c r="I187">
         <v>229</v>
       </c>
+      <c r="J187" s="18"/>
+      <c r="K187" s="17"/>
       <c r="L187" s="20"/>
     </row>
     <row r="188" spans="2:12" x14ac:dyDescent="0.25">
@@ -10285,6 +10323,8 @@
       <c r="I188">
         <v>230</v>
       </c>
+      <c r="J188" s="18"/>
+      <c r="K188" s="17"/>
       <c r="L188" s="20"/>
     </row>
     <row r="189" spans="2:12" x14ac:dyDescent="0.25">
@@ -10297,6 +10337,8 @@
       <c r="I189">
         <v>231</v>
       </c>
+      <c r="J189" s="18"/>
+      <c r="K189" s="17"/>
       <c r="L189" s="20"/>
     </row>
     <row r="190" spans="2:12" x14ac:dyDescent="0.25">
@@ -10315,6 +10357,8 @@
       <c r="I190">
         <v>232</v>
       </c>
+      <c r="J190" s="18"/>
+      <c r="K190" s="17"/>
       <c r="L190" s="20"/>
     </row>
     <row r="191" spans="2:12" x14ac:dyDescent="0.25">
@@ -10327,6 +10371,8 @@
       <c r="I191">
         <v>233</v>
       </c>
+      <c r="J191" s="18"/>
+      <c r="K191" s="17"/>
       <c r="L191" s="20"/>
     </row>
     <row r="192" spans="2:12" x14ac:dyDescent="0.25">
@@ -10345,6 +10391,8 @@
       <c r="I192">
         <v>234</v>
       </c>
+      <c r="J192" s="18"/>
+      <c r="K192" s="17"/>
       <c r="L192" s="20"/>
     </row>
     <row r="193" spans="2:12" x14ac:dyDescent="0.25">
@@ -10363,6 +10411,8 @@
       <c r="I193">
         <v>235</v>
       </c>
+      <c r="J193" s="18"/>
+      <c r="K193" s="17"/>
       <c r="L193" s="20"/>
     </row>
     <row r="194" spans="2:12" x14ac:dyDescent="0.25">
@@ -10375,6 +10425,8 @@
       <c r="I194">
         <v>236</v>
       </c>
+      <c r="J194" s="18"/>
+      <c r="K194" s="17"/>
       <c r="L194" s="20"/>
     </row>
     <row r="195" spans="2:12" x14ac:dyDescent="0.25">
@@ -10393,6 +10445,8 @@
       <c r="I195">
         <v>237</v>
       </c>
+      <c r="J195" s="18"/>
+      <c r="K195" s="17"/>
       <c r="L195" s="20"/>
     </row>
     <row r="196" spans="2:12" x14ac:dyDescent="0.25">
@@ -10405,6 +10459,8 @@
       <c r="I196">
         <v>238</v>
       </c>
+      <c r="J196" s="18"/>
+      <c r="K196" s="17"/>
       <c r="L196" s="20"/>
     </row>
     <row r="197" spans="2:12" x14ac:dyDescent="0.25">
@@ -10423,6 +10479,8 @@
       <c r="I197">
         <v>239</v>
       </c>
+      <c r="J197" s="18"/>
+      <c r="K197" s="17"/>
       <c r="L197" s="20"/>
     </row>
     <row r="198" spans="2:12" x14ac:dyDescent="0.25">
@@ -10435,6 +10493,8 @@
       <c r="I198">
         <v>240</v>
       </c>
+      <c r="J198" s="18"/>
+      <c r="K198" s="17"/>
       <c r="L198" s="20"/>
     </row>
     <row r="199" spans="2:12" x14ac:dyDescent="0.25">
@@ -10453,6 +10513,8 @@
       <c r="I199">
         <v>241</v>
       </c>
+      <c r="J199" s="18"/>
+      <c r="K199" s="17"/>
       <c r="L199" s="20"/>
     </row>
     <row r="200" spans="2:12" x14ac:dyDescent="0.25">
@@ -10465,6 +10527,8 @@
       <c r="I200">
         <v>242</v>
       </c>
+      <c r="J200" s="18"/>
+      <c r="K200" s="17"/>
       <c r="L200" s="20"/>
     </row>
     <row r="201" spans="2:12" x14ac:dyDescent="0.25">
@@ -10483,6 +10547,8 @@
       <c r="I201">
         <v>243</v>
       </c>
+      <c r="J201" s="18"/>
+      <c r="K201" s="17"/>
       <c r="L201" s="20"/>
     </row>
     <row r="202" spans="2:12" x14ac:dyDescent="0.25">
@@ -10495,6 +10561,8 @@
       <c r="I202">
         <v>244</v>
       </c>
+      <c r="J202" s="18"/>
+      <c r="K202" s="17"/>
       <c r="L202" s="20"/>
     </row>
     <row r="203" spans="2:12" x14ac:dyDescent="0.25">
@@ -10513,6 +10581,8 @@
       <c r="I203">
         <v>245</v>
       </c>
+      <c r="J203" s="18"/>
+      <c r="K203" s="17"/>
       <c r="L203" s="20"/>
     </row>
     <row r="204" spans="2:12" x14ac:dyDescent="0.25">
@@ -15704,6 +15774,8 @@
       <c r="I525">
         <v>598</v>
       </c>
+      <c r="J525" s="18"/>
+      <c r="K525" s="17"/>
       <c r="L525" s="19"/>
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.25">
@@ -15719,6 +15791,8 @@
       <c r="I526">
         <v>599</v>
       </c>
+      <c r="J526" s="18"/>
+      <c r="K526" s="17"/>
       <c r="L526" s="19"/>
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.25">
@@ -15734,6 +15808,8 @@
       <c r="I527">
         <v>600</v>
       </c>
+      <c r="J527" s="18"/>
+      <c r="K527" s="17"/>
       <c r="L527" s="19"/>
     </row>
     <row r="528" spans="1:12" x14ac:dyDescent="0.25">
@@ -15749,6 +15825,8 @@
       <c r="I528">
         <v>601</v>
       </c>
+      <c r="J528" s="18"/>
+      <c r="K528" s="17"/>
       <c r="L528" s="19"/>
     </row>
     <row r="529" spans="3:12" x14ac:dyDescent="0.25">
@@ -15764,6 +15842,8 @@
       <c r="I529">
         <v>602</v>
       </c>
+      <c r="J529" s="18"/>
+      <c r="K529" s="17"/>
       <c r="L529" s="19"/>
     </row>
     <row r="530" spans="3:12" x14ac:dyDescent="0.25">
@@ -15779,6 +15859,8 @@
       <c r="I530">
         <v>603</v>
       </c>
+      <c r="J530" s="18"/>
+      <c r="K530" s="17"/>
       <c r="L530" s="19"/>
     </row>
     <row r="531" spans="3:12" x14ac:dyDescent="0.25">
@@ -15794,6 +15876,8 @@
       <c r="I531">
         <v>604</v>
       </c>
+      <c r="J531" s="18"/>
+      <c r="K531" s="17"/>
       <c r="L531" s="19"/>
     </row>
     <row r="532" spans="3:12" x14ac:dyDescent="0.25">
@@ -15809,6 +15893,8 @@
       <c r="I532">
         <v>605</v>
       </c>
+      <c r="J532" s="18"/>
+      <c r="K532" s="17"/>
       <c r="L532" s="19"/>
     </row>
     <row r="533" spans="3:12" x14ac:dyDescent="0.25">
@@ -15824,6 +15910,8 @@
       <c r="I533">
         <v>606</v>
       </c>
+      <c r="J533" s="18"/>
+      <c r="K533" s="17"/>
       <c r="L533" s="19"/>
     </row>
     <row r="534" spans="3:12" x14ac:dyDescent="0.25">
@@ -15839,6 +15927,8 @@
       <c r="I534">
         <v>607</v>
       </c>
+      <c r="J534" s="18"/>
+      <c r="K534" s="17"/>
       <c r="L534" s="19"/>
     </row>
     <row r="535" spans="3:12" x14ac:dyDescent="0.25">
@@ -15854,6 +15944,8 @@
       <c r="I535">
         <v>608</v>
       </c>
+      <c r="J535" s="18"/>
+      <c r="K535" s="17"/>
       <c r="L535" s="19"/>
     </row>
     <row r="536" spans="3:12" x14ac:dyDescent="0.25">
@@ -15869,6 +15961,8 @@
       <c r="I536">
         <v>609</v>
       </c>
+      <c r="J536" s="18"/>
+      <c r="K536" s="17"/>
       <c r="L536" s="19"/>
     </row>
     <row r="537" spans="3:12" x14ac:dyDescent="0.25">
@@ -15881,6 +15975,8 @@
       <c r="I537">
         <v>610</v>
       </c>
+      <c r="J537" s="18"/>
+      <c r="K537" s="17"/>
       <c r="L537" s="19"/>
     </row>
     <row r="538" spans="3:12" x14ac:dyDescent="0.25">
@@ -15899,6 +15995,7 @@
       <c r="I538">
         <v>611</v>
       </c>
+      <c r="J538" s="18"/>
       <c r="K538" s="17"/>
       <c r="L538" s="19"/>
     </row>
@@ -15918,6 +16015,7 @@
       <c r="I539">
         <v>612</v>
       </c>
+      <c r="J539" s="18"/>
       <c r="K539" s="17"/>
       <c r="L539" s="19"/>
     </row>
@@ -15937,6 +16035,7 @@
       <c r="I540">
         <v>613</v>
       </c>
+      <c r="J540" s="18"/>
       <c r="K540" s="17"/>
       <c r="L540" s="19"/>
     </row>
@@ -15956,6 +16055,7 @@
       <c r="I541">
         <v>614</v>
       </c>
+      <c r="J541" s="18"/>
       <c r="K541" s="17"/>
       <c r="L541" s="19"/>
     </row>
@@ -15975,6 +16075,7 @@
       <c r="I542">
         <v>615</v>
       </c>
+      <c r="J542" s="18"/>
       <c r="K542" s="17"/>
       <c r="L542" s="19"/>
     </row>
@@ -15988,6 +16089,8 @@
       <c r="I543">
         <v>616</v>
       </c>
+      <c r="J543" s="18"/>
+      <c r="K543" s="17"/>
       <c r="L543" s="19"/>
     </row>
     <row r="544" spans="3:12" x14ac:dyDescent="0.25">
@@ -16003,6 +16106,8 @@
       <c r="I544">
         <v>617</v>
       </c>
+      <c r="J544" s="18"/>
+      <c r="K544" s="17"/>
       <c r="L544" s="19"/>
     </row>
     <row r="545" spans="3:12" x14ac:dyDescent="0.25">
@@ -16018,6 +16123,8 @@
       <c r="I545">
         <v>618</v>
       </c>
+      <c r="J545" s="18"/>
+      <c r="K545" s="17"/>
       <c r="L545" s="19"/>
     </row>
     <row r="546" spans="3:12" x14ac:dyDescent="0.25">
@@ -16033,6 +16140,8 @@
       <c r="I546">
         <v>619</v>
       </c>
+      <c r="J546" s="18"/>
+      <c r="K546" s="17"/>
       <c r="L546" s="19"/>
     </row>
     <row r="547" spans="3:12" x14ac:dyDescent="0.25">
@@ -16048,6 +16157,7 @@
       <c r="I547">
         <v>620</v>
       </c>
+      <c r="J547" s="18"/>
       <c r="K547" s="17"/>
       <c r="L547" s="19"/>
     </row>
@@ -16064,6 +16174,8 @@
       <c r="I548">
         <v>621</v>
       </c>
+      <c r="J548" s="18"/>
+      <c r="K548" s="17"/>
       <c r="L548" s="19"/>
     </row>
     <row r="549" spans="3:12" x14ac:dyDescent="0.25">
@@ -16079,6 +16191,8 @@
       <c r="I549">
         <v>622</v>
       </c>
+      <c r="J549" s="18"/>
+      <c r="K549" s="17"/>
       <c r="L549" s="19"/>
     </row>
     <row r="550" spans="3:12" x14ac:dyDescent="0.25">
@@ -16094,6 +16208,8 @@
       <c r="I550">
         <v>623</v>
       </c>
+      <c r="J550" s="18"/>
+      <c r="K550" s="17"/>
       <c r="L550" s="19"/>
     </row>
     <row r="551" spans="3:12" x14ac:dyDescent="0.25">
@@ -18891,6 +19007,7 @@
       <c r="I726">
         <v>805</v>
       </c>
+      <c r="J726" s="18"/>
       <c r="K726" s="17"/>
       <c r="L726" s="20"/>
     </row>
@@ -18910,6 +19027,7 @@
       <c r="I727">
         <v>806</v>
       </c>
+      <c r="J727" s="18"/>
       <c r="K727" s="17"/>
       <c r="L727" s="20"/>
     </row>
@@ -18923,6 +19041,7 @@
       <c r="I728">
         <v>807</v>
       </c>
+      <c r="J728" s="18"/>
       <c r="K728" s="17"/>
       <c r="L728" s="20"/>
     </row>
@@ -18942,6 +19061,7 @@
       <c r="I729">
         <v>808</v>
       </c>
+      <c r="J729" s="18"/>
       <c r="K729" s="17"/>
       <c r="L729" s="20"/>
     </row>
@@ -18961,6 +19081,7 @@
       <c r="I730">
         <v>809</v>
       </c>
+      <c r="J730" s="18"/>
       <c r="K730" s="17"/>
       <c r="L730" s="20"/>
     </row>
@@ -18980,6 +19101,7 @@
       <c r="I731">
         <v>810</v>
       </c>
+      <c r="J731" s="18"/>
       <c r="K731" s="17"/>
       <c r="L731" s="20"/>
     </row>
@@ -18999,6 +19121,7 @@
       <c r="I732">
         <v>811</v>
       </c>
+      <c r="J732" s="18"/>
       <c r="K732" s="17"/>
       <c r="L732" s="20"/>
     </row>
@@ -19018,6 +19141,7 @@
       <c r="I733">
         <v>812</v>
       </c>
+      <c r="J733" s="18"/>
       <c r="K733" s="17"/>
       <c r="L733" s="20"/>
     </row>
@@ -19031,6 +19155,7 @@
       <c r="I734">
         <v>813</v>
       </c>
+      <c r="J734" s="18"/>
       <c r="K734" s="17"/>
       <c r="L734" s="20"/>
     </row>
@@ -19050,6 +19175,7 @@
       <c r="I735">
         <v>814</v>
       </c>
+      <c r="J735" s="18"/>
       <c r="K735" s="17"/>
       <c r="L735" s="20"/>
     </row>
@@ -19069,6 +19195,7 @@
       <c r="I736">
         <v>815</v>
       </c>
+      <c r="J736" s="18"/>
       <c r="K736" s="17"/>
       <c r="L736" s="20"/>
     </row>
@@ -19088,6 +19215,7 @@
       <c r="I737">
         <v>816</v>
       </c>
+      <c r="J737" s="18"/>
       <c r="K737" s="17"/>
       <c r="L737" s="20"/>
     </row>
@@ -19107,6 +19235,7 @@
       <c r="I738">
         <v>817</v>
       </c>
+      <c r="J738" s="18"/>
       <c r="K738" s="17"/>
       <c r="L738" s="20"/>
     </row>
@@ -19126,6 +19255,7 @@
       <c r="I739">
         <v>818</v>
       </c>
+      <c r="J739" s="18"/>
       <c r="K739" s="17"/>
       <c r="L739" s="20"/>
     </row>
@@ -19277,6 +19407,8 @@
       <c r="I748">
         <v>827</v>
       </c>
+      <c r="J748" s="18"/>
+      <c r="K748" s="17"/>
       <c r="L748" s="20"/>
     </row>
     <row r="749" spans="3:12" x14ac:dyDescent="0.25">
@@ -19295,6 +19427,8 @@
       <c r="I749">
         <v>828</v>
       </c>
+      <c r="J749" s="18"/>
+      <c r="K749" s="17"/>
       <c r="L749" s="20"/>
     </row>
     <row r="750" spans="3:12" x14ac:dyDescent="0.25">
@@ -19313,6 +19447,8 @@
       <c r="I750">
         <v>829</v>
       </c>
+      <c r="J750" s="18"/>
+      <c r="K750" s="17"/>
       <c r="L750" s="20"/>
     </row>
     <row r="751" spans="3:12" x14ac:dyDescent="0.25">
@@ -19331,6 +19467,8 @@
       <c r="I751">
         <v>830</v>
       </c>
+      <c r="J751" s="18"/>
+      <c r="K751" s="17"/>
       <c r="L751" s="20"/>
     </row>
     <row r="752" spans="3:12" x14ac:dyDescent="0.25">
@@ -19349,6 +19487,8 @@
       <c r="I752">
         <v>831</v>
       </c>
+      <c r="J752" s="18"/>
+      <c r="K752" s="17"/>
       <c r="L752" s="20"/>
     </row>
     <row r="753" spans="2:12" x14ac:dyDescent="0.25">

--- a/EducationPlan_Biro_Tajthy.xlsx
+++ b/EducationPlan_Biro_Tajthy.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2D3\D2D3_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D2D3\D2D3_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Education plan'!$A$3:$F$1789</definedName>
     <definedName name="Statuses">Validation!$A$1:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -6109,7 +6109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7143,9 +7143,9 @@
   </sheetPr>
   <dimension ref="A1:L1789"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D166" sqref="D166"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J111" sqref="J111:J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7169,17 +7169,17 @@
         <v>1869</v>
       </c>
       <c r="B1" s="8">
-        <v>42536</v>
+        <v>42736</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1870</v>
       </c>
       <c r="D1" s="10">
-        <v>42809</v>
+        <v>43093</v>
       </c>
       <c r="E1" s="11" t="str">
         <f ca="1">"Elapsed time: " &amp; ROUND((TODAY() - $B$1)/($D$1-$B$1) * 100,2) &amp; "%"</f>
-        <v>Elapsed time: 91.94%</v>
+        <v>Elapsed time: 24.09%</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -7484,6 +7484,7 @@
       <c r="I18">
         <v>15</v>
       </c>
+      <c r="J18" s="18"/>
       <c r="K18" s="17"/>
       <c r="L18" s="20"/>
     </row>
@@ -7500,6 +7501,7 @@
       <c r="I19">
         <v>16</v>
       </c>
+      <c r="J19" s="18"/>
       <c r="K19" s="17"/>
       <c r="L19" s="20"/>
     </row>
@@ -7516,6 +7518,7 @@
       <c r="I20">
         <v>17</v>
       </c>
+      <c r="J20" s="18"/>
       <c r="K20" s="17"/>
       <c r="L20" s="20"/>
     </row>
@@ -7532,6 +7535,7 @@
       <c r="I21">
         <v>18</v>
       </c>
+      <c r="J21" s="18"/>
       <c r="K21" s="17"/>
       <c r="L21" s="20"/>
     </row>
@@ -7548,6 +7552,7 @@
       <c r="I22">
         <v>19</v>
       </c>
+      <c r="J22" s="18"/>
       <c r="K22" s="17"/>
       <c r="L22" s="20"/>
     </row>
@@ -7564,6 +7569,7 @@
       <c r="I23">
         <v>20</v>
       </c>
+      <c r="J23" s="18"/>
       <c r="K23" s="17"/>
       <c r="L23" s="20"/>
     </row>
@@ -7580,6 +7586,7 @@
       <c r="I24">
         <v>21</v>
       </c>
+      <c r="J24" s="18"/>
       <c r="K24" s="17"/>
       <c r="L24" s="20"/>
     </row>
@@ -9043,6 +9050,7 @@
       <c r="I111">
         <v>145</v>
       </c>
+      <c r="J111" s="18"/>
       <c r="K111" s="17"/>
       <c r="L111" s="20"/>
     </row>
@@ -9059,6 +9067,7 @@
       <c r="I112">
         <v>147</v>
       </c>
+      <c r="J112" s="18"/>
       <c r="K112" s="17"/>
       <c r="L112" s="20"/>
     </row>
@@ -9075,6 +9084,7 @@
       <c r="I113">
         <v>153</v>
       </c>
+      <c r="J113" s="18"/>
       <c r="K113" s="17"/>
       <c r="L113" s="20"/>
     </row>
@@ -9091,6 +9101,7 @@
       <c r="I114">
         <v>156</v>
       </c>
+      <c r="J114" s="18"/>
       <c r="K114" s="17"/>
       <c r="L114" s="20"/>
     </row>
@@ -9107,6 +9118,7 @@
       <c r="I115">
         <v>157</v>
       </c>
+      <c r="J115" s="18"/>
       <c r="K115" s="17"/>
       <c r="L115" s="20"/>
     </row>
@@ -9832,6 +9844,7 @@
       <c r="I157">
         <v>199</v>
       </c>
+      <c r="J157" s="18"/>
       <c r="K157" s="17"/>
       <c r="L157" s="20"/>
     </row>
@@ -9848,6 +9861,7 @@
       <c r="I158">
         <v>200</v>
       </c>
+      <c r="J158" s="18"/>
       <c r="K158" s="17"/>
       <c r="L158" s="20"/>
     </row>
@@ -9864,6 +9878,7 @@
       <c r="I159">
         <v>201</v>
       </c>
+      <c r="J159" s="18"/>
       <c r="K159" s="17"/>
       <c r="L159" s="20"/>
     </row>
@@ -9880,6 +9895,7 @@
       <c r="I160">
         <v>202</v>
       </c>
+      <c r="J160" s="18"/>
       <c r="K160" s="17"/>
       <c r="L160" s="20"/>
     </row>
@@ -9896,6 +9912,7 @@
       <c r="I161">
         <v>203</v>
       </c>
+      <c r="J161" s="18"/>
       <c r="K161" s="17"/>
       <c r="L161" s="20"/>
     </row>
@@ -9912,6 +9929,7 @@
       <c r="I162">
         <v>204</v>
       </c>
+      <c r="J162" s="18"/>
       <c r="K162" s="17"/>
       <c r="L162" s="20"/>
     </row>
@@ -9928,6 +9946,7 @@
       <c r="I163">
         <v>205</v>
       </c>
+      <c r="J163" s="18"/>
       <c r="K163" s="17"/>
       <c r="L163" s="20"/>
     </row>
@@ -9944,6 +9963,7 @@
       <c r="I164">
         <v>206</v>
       </c>
+      <c r="J164" s="18"/>
       <c r="K164" s="17"/>
       <c r="L164" s="20"/>
     </row>
@@ -9960,6 +9980,7 @@
       <c r="I165">
         <v>207</v>
       </c>
+      <c r="J165" s="18"/>
       <c r="K165" s="17"/>
       <c r="L165" s="20"/>
     </row>
@@ -9976,6 +9997,7 @@
       <c r="I166">
         <v>208</v>
       </c>
+      <c r="J166" s="18"/>
       <c r="K166" s="17"/>
       <c r="L166" s="20"/>
     </row>
@@ -9992,6 +10014,7 @@
       <c r="I167">
         <v>209</v>
       </c>
+      <c r="J167" s="18"/>
       <c r="K167" s="17"/>
       <c r="L167" s="20"/>
     </row>
@@ -10008,6 +10031,7 @@
       <c r="I168">
         <v>210</v>
       </c>
+      <c r="J168" s="18"/>
       <c r="K168" s="17"/>
       <c r="L168" s="20"/>
     </row>
@@ -10036,6 +10060,8 @@
       <c r="I170">
         <v>212</v>
       </c>
+      <c r="J170" s="18"/>
+      <c r="K170" s="17"/>
       <c r="L170" s="20"/>
     </row>
     <row r="171" spans="3:12" x14ac:dyDescent="0.25">
@@ -10051,6 +10077,8 @@
       <c r="I171">
         <v>213</v>
       </c>
+      <c r="J171" s="18"/>
+      <c r="K171" s="17"/>
       <c r="L171" s="20"/>
     </row>
     <row r="172" spans="3:12" x14ac:dyDescent="0.25">
@@ -10066,6 +10094,8 @@
       <c r="I172">
         <v>214</v>
       </c>
+      <c r="J172" s="18"/>
+      <c r="K172" s="17"/>
       <c r="L172" s="20"/>
     </row>
     <row r="173" spans="3:12" x14ac:dyDescent="0.25">
@@ -10081,6 +10111,8 @@
       <c r="I173">
         <v>215</v>
       </c>
+      <c r="J173" s="18"/>
+      <c r="K173" s="17"/>
       <c r="L173" s="20"/>
     </row>
     <row r="174" spans="3:12" x14ac:dyDescent="0.25">
@@ -10096,6 +10128,8 @@
       <c r="I174">
         <v>216</v>
       </c>
+      <c r="J174" s="18"/>
+      <c r="K174" s="17"/>
       <c r="L174" s="20"/>
     </row>
     <row r="175" spans="3:12" x14ac:dyDescent="0.25">
@@ -10111,6 +10145,8 @@
       <c r="I175">
         <v>217</v>
       </c>
+      <c r="J175" s="18"/>
+      <c r="K175" s="17"/>
       <c r="L175" s="20"/>
     </row>
     <row r="176" spans="3:12" x14ac:dyDescent="0.25">
@@ -10126,6 +10162,8 @@
       <c r="I176">
         <v>218</v>
       </c>
+      <c r="J176" s="18"/>
+      <c r="K176" s="17"/>
       <c r="L176" s="20"/>
     </row>
     <row r="177" spans="2:12" x14ac:dyDescent="0.25">
@@ -10141,6 +10179,8 @@
       <c r="I177">
         <v>219</v>
       </c>
+      <c r="J177" s="18"/>
+      <c r="K177" s="17"/>
       <c r="L177" s="20"/>
     </row>
     <row r="178" spans="2:12" x14ac:dyDescent="0.25">
@@ -10156,6 +10196,8 @@
       <c r="I178">
         <v>220</v>
       </c>
+      <c r="J178" s="18"/>
+      <c r="K178" s="17"/>
       <c r="L178" s="20"/>
     </row>
     <row r="179" spans="2:12" x14ac:dyDescent="0.25">
@@ -10171,6 +10213,8 @@
       <c r="I179">
         <v>221</v>
       </c>
+      <c r="J179" s="18"/>
+      <c r="K179" s="17"/>
       <c r="L179" s="20"/>
     </row>
     <row r="180" spans="2:12" x14ac:dyDescent="0.25">
@@ -10186,6 +10230,8 @@
       <c r="I180">
         <v>222</v>
       </c>
+      <c r="J180" s="18"/>
+      <c r="K180" s="17"/>
       <c r="L180" s="20"/>
     </row>
     <row r="181" spans="2:12" x14ac:dyDescent="0.25">
@@ -10201,6 +10247,8 @@
       <c r="I181">
         <v>223</v>
       </c>
+      <c r="J181" s="18"/>
+      <c r="K181" s="17"/>
       <c r="L181" s="20"/>
     </row>
     <row r="182" spans="2:12" x14ac:dyDescent="0.25">
@@ -10216,6 +10264,8 @@
       <c r="I182">
         <v>224</v>
       </c>
+      <c r="J182" s="18"/>
+      <c r="K182" s="17"/>
       <c r="L182" s="20"/>
     </row>
     <row r="183" spans="2:12" x14ac:dyDescent="0.25">
@@ -10610,6 +10660,8 @@
       <c r="I205">
         <v>247</v>
       </c>
+      <c r="J205" s="18"/>
+      <c r="K205" s="17"/>
       <c r="L205" s="19"/>
     </row>
     <row r="206" spans="2:12" x14ac:dyDescent="0.25">
@@ -10625,6 +10677,8 @@
       <c r="I206">
         <v>248</v>
       </c>
+      <c r="J206" s="18"/>
+      <c r="K206" s="17"/>
       <c r="L206" s="19"/>
     </row>
     <row r="207" spans="2:12" x14ac:dyDescent="0.25">
@@ -10640,6 +10694,8 @@
       <c r="I207">
         <v>249</v>
       </c>
+      <c r="J207" s="18"/>
+      <c r="K207" s="17"/>
       <c r="L207" s="19"/>
     </row>
     <row r="208" spans="2:12" x14ac:dyDescent="0.25">
@@ -10655,6 +10711,8 @@
       <c r="I208">
         <v>250</v>
       </c>
+      <c r="J208" s="18"/>
+      <c r="K208" s="17"/>
       <c r="L208" s="19"/>
     </row>
     <row r="209" spans="3:12" x14ac:dyDescent="0.25">
@@ -10670,6 +10728,8 @@
       <c r="I209">
         <v>251</v>
       </c>
+      <c r="J209" s="18"/>
+      <c r="K209" s="17"/>
       <c r="L209" s="19"/>
     </row>
     <row r="210" spans="3:12" x14ac:dyDescent="0.25">
@@ -10682,6 +10742,8 @@
       <c r="I210">
         <v>252</v>
       </c>
+      <c r="J210" s="18"/>
+      <c r="K210" s="17"/>
       <c r="L210" s="19"/>
     </row>
     <row r="211" spans="3:12" x14ac:dyDescent="0.25">
@@ -10700,6 +10762,8 @@
       <c r="I211">
         <v>253</v>
       </c>
+      <c r="J211" s="18"/>
+      <c r="K211" s="17"/>
       <c r="L211" s="19"/>
     </row>
     <row r="212" spans="3:12" x14ac:dyDescent="0.25">
@@ -10718,6 +10782,8 @@
       <c r="I212">
         <v>254</v>
       </c>
+      <c r="J212" s="18"/>
+      <c r="K212" s="17"/>
       <c r="L212" s="19"/>
     </row>
     <row r="213" spans="3:12" x14ac:dyDescent="0.25">
@@ -10736,6 +10802,8 @@
       <c r="I213">
         <v>255</v>
       </c>
+      <c r="J213" s="18"/>
+      <c r="K213" s="17"/>
       <c r="L213" s="19"/>
     </row>
     <row r="214" spans="3:12" x14ac:dyDescent="0.25">
@@ -10754,6 +10822,8 @@
       <c r="I214">
         <v>256</v>
       </c>
+      <c r="J214" s="18"/>
+      <c r="K214" s="17"/>
       <c r="L214" s="19"/>
     </row>
     <row r="215" spans="3:12" x14ac:dyDescent="0.25">
@@ -10772,6 +10842,8 @@
       <c r="I215">
         <v>257</v>
       </c>
+      <c r="J215" s="18"/>
+      <c r="K215" s="17"/>
       <c r="L215" s="19"/>
     </row>
     <row r="216" spans="3:12" x14ac:dyDescent="0.25">
@@ -10790,6 +10862,8 @@
       <c r="I216">
         <v>258</v>
       </c>
+      <c r="J216" s="18"/>
+      <c r="K216" s="17"/>
       <c r="L216" s="19"/>
     </row>
     <row r="217" spans="3:12" x14ac:dyDescent="0.25">
@@ -10808,6 +10882,8 @@
       <c r="I217">
         <v>259</v>
       </c>
+      <c r="J217" s="18"/>
+      <c r="K217" s="17"/>
       <c r="L217" s="19"/>
     </row>
     <row r="218" spans="3:12" x14ac:dyDescent="0.25">
@@ -10820,6 +10896,8 @@
       <c r="I218">
         <v>260</v>
       </c>
+      <c r="J218" s="18"/>
+      <c r="K218" s="17"/>
       <c r="L218" s="19"/>
     </row>
     <row r="219" spans="3:12" x14ac:dyDescent="0.25">
@@ -10838,6 +10916,8 @@
       <c r="I219">
         <v>261</v>
       </c>
+      <c r="J219" s="18"/>
+      <c r="K219" s="17"/>
       <c r="L219" s="19"/>
     </row>
     <row r="220" spans="3:12" x14ac:dyDescent="0.25">
@@ -10856,6 +10936,8 @@
       <c r="I220">
         <v>262</v>
       </c>
+      <c r="J220" s="18"/>
+      <c r="K220" s="17"/>
       <c r="L220" s="19"/>
     </row>
     <row r="221" spans="3:12" x14ac:dyDescent="0.25">
@@ -10874,6 +10956,8 @@
       <c r="I221">
         <v>263</v>
       </c>
+      <c r="J221" s="18"/>
+      <c r="K221" s="17"/>
       <c r="L221" s="19"/>
     </row>
     <row r="222" spans="3:12" x14ac:dyDescent="0.25">
@@ -10892,6 +10976,8 @@
       <c r="I222">
         <v>264</v>
       </c>
+      <c r="J222" s="18"/>
+      <c r="K222" s="17"/>
       <c r="L222" s="19"/>
     </row>
     <row r="223" spans="3:12" x14ac:dyDescent="0.25">
@@ -10910,6 +10996,8 @@
       <c r="I223">
         <v>265</v>
       </c>
+      <c r="J223" s="18"/>
+      <c r="K223" s="17"/>
       <c r="L223" s="19"/>
     </row>
     <row r="224" spans="3:12" x14ac:dyDescent="0.25">
@@ -10928,6 +11016,8 @@
       <c r="I224">
         <v>266</v>
       </c>
+      <c r="J224" s="18"/>
+      <c r="K224" s="17"/>
       <c r="L224" s="19"/>
     </row>
     <row r="225" spans="3:12" x14ac:dyDescent="0.25">
@@ -10946,6 +11036,8 @@
       <c r="I225">
         <v>267</v>
       </c>
+      <c r="J225" s="18"/>
+      <c r="K225" s="17"/>
       <c r="L225" s="19"/>
     </row>
     <row r="226" spans="3:12" x14ac:dyDescent="0.25">
@@ -10964,6 +11056,8 @@
       <c r="I226">
         <v>268</v>
       </c>
+      <c r="J226" s="18"/>
+      <c r="K226" s="17"/>
       <c r="L226" s="19"/>
     </row>
     <row r="227" spans="3:12" x14ac:dyDescent="0.25">
@@ -10982,6 +11076,8 @@
       <c r="I227">
         <v>269</v>
       </c>
+      <c r="J227" s="18"/>
+      <c r="K227" s="17"/>
       <c r="L227" s="19"/>
     </row>
     <row r="228" spans="3:12" x14ac:dyDescent="0.25">
@@ -11000,6 +11096,8 @@
       <c r="I228">
         <v>270</v>
       </c>
+      <c r="J228" s="18"/>
+      <c r="K228" s="17"/>
       <c r="L228" s="19"/>
     </row>
     <row r="229" spans="3:12" x14ac:dyDescent="0.25">
@@ -11018,6 +11116,8 @@
       <c r="I229">
         <v>271</v>
       </c>
+      <c r="J229" s="18"/>
+      <c r="K229" s="17"/>
       <c r="L229" s="19"/>
     </row>
     <row r="230" spans="3:12" x14ac:dyDescent="0.25">
@@ -11036,6 +11136,8 @@
       <c r="I230">
         <v>272</v>
       </c>
+      <c r="J230" s="18"/>
+      <c r="K230" s="17"/>
       <c r="L230" s="19"/>
     </row>
     <row r="231" spans="3:12" x14ac:dyDescent="0.25">
@@ -11054,6 +11156,8 @@
       <c r="I231">
         <v>273</v>
       </c>
+      <c r="J231" s="18"/>
+      <c r="K231" s="17"/>
       <c r="L231" s="19"/>
     </row>
     <row r="232" spans="3:12" x14ac:dyDescent="0.25">
@@ -11072,6 +11176,8 @@
       <c r="I232">
         <v>274</v>
       </c>
+      <c r="J232" s="18"/>
+      <c r="K232" s="17"/>
       <c r="L232" s="19"/>
     </row>
     <row r="233" spans="3:12" x14ac:dyDescent="0.25">
@@ -11090,6 +11196,8 @@
       <c r="I233">
         <v>275</v>
       </c>
+      <c r="J233" s="18"/>
+      <c r="K233" s="17"/>
       <c r="L233" s="19"/>
     </row>
     <row r="234" spans="3:12" x14ac:dyDescent="0.25">
@@ -11108,6 +11216,8 @@
       <c r="I234">
         <v>276</v>
       </c>
+      <c r="J234" s="18"/>
+      <c r="K234" s="17"/>
       <c r="L234" s="19"/>
     </row>
     <row r="235" spans="3:12" x14ac:dyDescent="0.25">
@@ -11126,6 +11236,8 @@
       <c r="I235">
         <v>277</v>
       </c>
+      <c r="J235" s="18"/>
+      <c r="K235" s="17"/>
       <c r="L235" s="19"/>
     </row>
     <row r="236" spans="3:12" x14ac:dyDescent="0.25">
@@ -11144,6 +11256,8 @@
       <c r="I236">
         <v>278</v>
       </c>
+      <c r="J236" s="18"/>
+      <c r="K236" s="17"/>
       <c r="L236" s="19"/>
     </row>
     <row r="237" spans="3:12" x14ac:dyDescent="0.25">
@@ -11156,6 +11270,7 @@
       <c r="I237">
         <v>279</v>
       </c>
+      <c r="K237" s="17"/>
       <c r="L237" s="19"/>
     </row>
     <row r="238" spans="3:12" x14ac:dyDescent="0.25">
@@ -14162,7 +14277,7 @@
       <c r="I415">
         <v>479</v>
       </c>
-      <c r="J415" s="17"/>
+      <c r="J415" s="18"/>
       <c r="L415" s="20" t="s">
         <v>1795</v>
       </c>
@@ -14177,6 +14292,7 @@
       <c r="I416">
         <v>480</v>
       </c>
+      <c r="J416" s="18"/>
       <c r="K416" s="17"/>
       <c r="L416" s="20"/>
     </row>
@@ -14196,6 +14312,7 @@
       <c r="I417">
         <v>481</v>
       </c>
+      <c r="J417" s="18"/>
       <c r="K417" s="17"/>
       <c r="L417" s="20"/>
     </row>
@@ -14215,6 +14332,7 @@
       <c r="I418">
         <v>482</v>
       </c>
+      <c r="J418" s="18"/>
       <c r="K418" s="17"/>
       <c r="L418" s="20"/>
     </row>
@@ -14234,6 +14352,7 @@
       <c r="I419">
         <v>483</v>
       </c>
+      <c r="J419" s="18"/>
       <c r="K419" s="17"/>
       <c r="L419" s="20"/>
     </row>
@@ -14253,6 +14372,7 @@
       <c r="I420">
         <v>484</v>
       </c>
+      <c r="J420" s="18"/>
       <c r="K420" s="17"/>
       <c r="L420" s="20"/>
     </row>
@@ -14272,6 +14392,7 @@
       <c r="I421">
         <v>485</v>
       </c>
+      <c r="J421" s="18"/>
       <c r="K421" s="17"/>
       <c r="L421" s="20"/>
     </row>
@@ -14291,6 +14412,7 @@
       <c r="I422">
         <v>486</v>
       </c>
+      <c r="J422" s="18"/>
       <c r="K422" s="17"/>
       <c r="L422" s="20"/>
     </row>
@@ -14310,6 +14432,7 @@
       <c r="I423">
         <v>487</v>
       </c>
+      <c r="J423" s="18"/>
       <c r="K423" s="17"/>
       <c r="L423" s="20"/>
     </row>
@@ -14323,6 +14446,7 @@
       <c r="I424">
         <v>488</v>
       </c>
+      <c r="J424" s="18"/>
       <c r="L424" s="20"/>
     </row>
     <row r="425" spans="2:12" x14ac:dyDescent="0.25">
@@ -14341,6 +14465,7 @@
       <c r="I425">
         <v>489</v>
       </c>
+      <c r="J425" s="18"/>
       <c r="K425" s="17"/>
       <c r="L425" s="20"/>
     </row>
@@ -14354,7 +14479,7 @@
       <c r="I426">
         <v>490</v>
       </c>
-      <c r="J426" s="17"/>
+      <c r="J426" s="18"/>
       <c r="L426" s="19" t="s">
         <v>1796</v>
       </c>
@@ -19532,6 +19657,7 @@
       <c r="I755">
         <v>834</v>
       </c>
+      <c r="J755" s="18"/>
       <c r="K755" s="17"/>
       <c r="L755" s="20"/>
     </row>
@@ -19548,6 +19674,7 @@
       <c r="I756">
         <v>835</v>
       </c>
+      <c r="J756" s="18"/>
       <c r="K756" s="17"/>
       <c r="L756" s="20"/>
     </row>
@@ -19564,6 +19691,7 @@
       <c r="I757">
         <v>836</v>
       </c>
+      <c r="J757" s="18"/>
       <c r="K757" s="17"/>
       <c r="L757" s="20"/>
     </row>
